--- a/biology/Botanique/Buprestidae/Buprestidae.xlsx
+++ b/biology/Botanique/Buprestidae/Buprestidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buprestidés
-Les Buprestidae ou Buprestidés forment une famille de coléoptères herbivores essentiellement forestière et tropicale, dont on connaît environ 15 000 espèces, dont 165 en France. Plusieurs auteurs antiques comme Aristote, Dion Cassius[1] et Pline rapportent que ces insectes peuvent provoquer des inflammations et même la mort des bovins qui s'en nourrissent en pâturant. Il est probable que ces auteurs faisaient référence à des coléoptères différents de ceux appelés aujourd'hui « buprestes », probablement des Meloidae.
-Les élytres de certaines espèces de Buprestidae ont été utilisées dans des colliers ou des boucles d'oreille en Afrique et en Amérique du Sud[2].
+Les Buprestidae ou Buprestidés forment une famille de coléoptères herbivores essentiellement forestière et tropicale, dont on connaît environ 15 000 espèces, dont 165 en France. Plusieurs auteurs antiques comme Aristote, Dion Cassius et Pline rapportent que ces insectes peuvent provoquer des inflammations et même la mort des bovins qui s'en nourrissent en pâturant. Il est probable que ces auteurs faisaient référence à des coléoptères différents de ceux appelés aujourd'hui « buprestes », probablement des Meloidae.
+Les élytres de certaines espèces de Buprestidae ont été utilisées dans des colliers ou des boucles d'oreille en Afrique et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du grec ancien bouprêstis, issu de βοῦς / boûs (« bœuf ») et πρήθω  / prḗthō (« enfler »). Il a été utilisé comme le nom du genre Buprestis donné par Linné en 1758, le naturaliste reprenant le nom utilisé par les auteurs antiques pour désigner divers coléoptères tels que les méloés (dénommés aussi « enfle-bœufs » produisant une saignée réflexe libérant un liquide riche en cantharidine, toxique et vésicant pour les vertébrés) qui, avalés avec l'herbe broutée, faisaient enfler le bétail. En réalité, aucun membre de cette famille n'est toxique et les buprestes phytophages vivent principalement sur les écorces et le bois mort, rarement sur l'herbe[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du grec ancien bouprêstis, issu de βοῦς / boûs (« bœuf ») et πρήθω  / prḗthō (« enfler »). Il a été utilisé comme le nom du genre Buprestis donné par Linné en 1758, le naturaliste reprenant le nom utilisé par les auteurs antiques pour désigner divers coléoptères tels que les méloés (dénommés aussi « enfle-bœufs » produisant une saignée réflexe libérant un liquide riche en cantharidine, toxique et vésicant pour les vertébrés) qui, avalés avec l'herbe broutée, faisaient enfler le bétail. En réalité, aucun membre de cette famille n'est toxique et les buprestes phytophages vivent principalement sur les écorces et le bois mort, rarement sur l'herbe.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 févr. 2015)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 févr. 2015) :
 Agrilinae Laporte, 1835
 Buprestinae Leach, 1815
 Chrysobothrinae Lacordaire, 1857
